--- a/Final Data/Meteorological Interpolated.xlsx
+++ b/Final Data/Meteorological Interpolated.xlsx
@@ -164,8 +164,8 @@
   </sheetPr>
   <dimension ref="A1:G2204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2205" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2226" activeCellId="0" sqref="M2226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13801,1547 +13801,455 @@
       <c r="A718" s="2" t="n">
         <v>42490.9166666667</v>
       </c>
-      <c r="D718" s="0" t="n">
-        <v>311.171768346365</v>
-      </c>
-      <c r="E718" s="0" t="n">
-        <v>1.21521739130435</v>
-      </c>
-      <c r="F718" s="0" t="n">
-        <v>302.70568217559</v>
-      </c>
-      <c r="G718" s="0" t="n">
-        <v>1.05163784857937</v>
-      </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="n">
         <v>42490.9583333333</v>
       </c>
-      <c r="D719" s="0" t="n">
-        <v>310.530528517295</v>
-      </c>
-      <c r="E719" s="0" t="n">
-        <v>1.2304347826087</v>
-      </c>
-      <c r="F719" s="0" t="n">
-        <v>294.207995277114</v>
-      </c>
-      <c r="G719" s="0" t="n">
-        <v>0.903291363023831</v>
-      </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="D720" s="0" t="n">
-        <v>309.876037971538</v>
-      </c>
-      <c r="E720" s="0" t="n">
-        <v>1.24565217391304</v>
-      </c>
-      <c r="F720" s="0" t="n">
-        <v>201.855256237423</v>
-      </c>
-      <c r="G720" s="0" t="n">
-        <v>-21.2345684735174</v>
-      </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2" t="n">
         <v>42583.0416666667</v>
       </c>
-      <c r="D721" s="0" t="n">
-        <v>309.208057877508</v>
-      </c>
-      <c r="E721" s="0" t="n">
-        <v>1.26086956521739</v>
-      </c>
-      <c r="F721" s="0" t="n">
-        <v>201.89384092882</v>
-      </c>
-      <c r="G721" s="0" t="n">
-        <v>-20.985251280852</v>
-      </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2" t="n">
         <v>42583.0833333334</v>
       </c>
-      <c r="D722" s="0" t="n">
-        <v>308.526354129992</v>
-      </c>
-      <c r="E722" s="0" t="n">
-        <v>1.27608695652174</v>
-      </c>
-      <c r="F722" s="0" t="n">
-        <v>201.934663717522</v>
-      </c>
-      <c r="G722" s="0" t="n">
-        <v>-20.7355898774198</v>
-      </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2" t="n">
         <v>42583.125</v>
       </c>
-      <c r="D723" s="0" t="n">
-        <v>307.830698452382</v>
-      </c>
-      <c r="E723" s="0" t="n">
-        <v>1.29130434782609</v>
-      </c>
-      <c r="F723" s="0" t="n">
-        <v>201.977780324948</v>
-      </c>
-      <c r="G723" s="0" t="n">
-        <v>-20.4855841146253</v>
-      </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2" t="n">
         <v>42583.1666666667</v>
       </c>
-      <c r="D724" s="0" t="n">
-        <v>307.120869587096</v>
-      </c>
-      <c r="E724" s="0" t="n">
-        <v>1.30652173913044</v>
-      </c>
-      <c r="F724" s="0" t="n">
-        <v>202.023247817766</v>
-      </c>
-      <c r="G724" s="0" t="n">
-        <v>-20.2352338438727</v>
-      </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="n">
         <v>42583.2083333333</v>
       </c>
-      <c r="D725" s="0" t="n">
-        <v>306.396654576327</v>
-      </c>
-      <c r="E725" s="0" t="n">
-        <v>1.32173913043478</v>
-      </c>
-      <c r="F725" s="0" t="n">
-        <v>202.071124638812</v>
-      </c>
-      <c r="G725" s="0" t="n">
-        <v>-19.9845389165665</v>
-      </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="n">
         <v>42583.25</v>
       </c>
-      <c r="D726" s="0" t="n">
-        <v>305.657850134577</v>
-      </c>
-      <c r="E726" s="0" t="n">
-        <v>1.33695652173913</v>
-      </c>
-      <c r="F726" s="0" t="n">
-        <v>202.121470638444</v>
-      </c>
-      <c r="G726" s="0" t="n">
-        <v>-19.7334991841111</v>
-      </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="n">
         <v>42583.2916666667</v>
       </c>
-      <c r="D727" s="0" t="n">
-        <v>304.904264113584</v>
-      </c>
-      <c r="E727" s="0" t="n">
-        <v>1.35217391304348</v>
-      </c>
-      <c r="F727" s="0" t="n">
-        <v>202.174347106304</v>
-      </c>
-      <c r="G727" s="0" t="n">
-        <v>-19.4821144979109</v>
-      </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="n">
         <v>42583.3333333333</v>
       </c>
-      <c r="D728" s="0" t="n">
-        <v>304.135717059322</v>
-      </c>
-      <c r="E728" s="0" t="n">
-        <v>1.36739130434783</v>
-      </c>
-      <c r="F728" s="0" t="n">
-        <v>202.229816803459</v>
-      </c>
-      <c r="G728" s="0" t="n">
-        <v>-19.2303847093701</v>
-      </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="n">
         <v>42583.375</v>
       </c>
-      <c r="D729" s="0" t="n">
-        <v>303.352043859551</v>
-      </c>
-      <c r="E729" s="0" t="n">
-        <v>1.38260869565217</v>
-      </c>
-      <c r="F729" s="0" t="n">
-        <v>202.287943994892</v>
-      </c>
-      <c r="G729" s="0" t="n">
-        <v>-18.9783096698933</v>
-      </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="n">
         <v>42583.4166666667</v>
       </c>
-      <c r="D730" s="0" t="n">
-        <v>302.553095479159</v>
-      </c>
-      <c r="E730" s="0" t="n">
-        <v>1.39782608695652</v>
-      </c>
-      <c r="F730" s="0" t="n">
-        <v>202.34879448231</v>
-      </c>
-      <c r="G730" s="0" t="n">
-        <v>-18.7258892308849</v>
-      </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2" t="n">
         <v>42583.4583333333</v>
       </c>
-      <c r="D731" s="0" t="n">
-        <v>301.738740778969</v>
-      </c>
-      <c r="E731" s="0" t="n">
-        <v>1.41304347826087</v>
-      </c>
-      <c r="F731" s="0" t="n">
-        <v>202.412435637216</v>
-      </c>
-      <c r="G731" s="0" t="n">
-        <v>-18.4731232437491</v>
-      </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2" t="n">
         <v>42583.5</v>
       </c>
-      <c r="D732" s="0" t="n">
-        <v>300.908868412083</v>
-      </c>
-      <c r="E732" s="0" t="n">
-        <v>1.42826086956522</v>
-      </c>
-      <c r="F732" s="0" t="n">
-        <v>202.478936434214</v>
-      </c>
-      <c r="G732" s="0" t="n">
-        <v>-18.2200115598904</v>
-      </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="n">
         <v>42583.5416666667</v>
       </c>
-      <c r="D733" s="0" t="n">
-        <v>300.063388789946</v>
-      </c>
-      <c r="E733" s="0" t="n">
-        <v>1.44347826086957</v>
-      </c>
-      <c r="F733" s="0" t="n">
-        <v>202.548367484476</v>
-      </c>
-      <c r="G733" s="0" t="n">
-        <v>-17.9665540307132</v>
-      </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="n">
         <v>42583.5833333333</v>
       </c>
-      <c r="D734" s="0" t="n">
-        <v>299.202236108303</v>
-      </c>
-      <c r="E734" s="0" t="n">
-        <v>1.45869565217391</v>
-      </c>
-      <c r="F734" s="0" t="n">
-        <v>202.620801069337</v>
-      </c>
-      <c r="G734" s="0" t="n">
-        <v>-17.7127505076218</v>
-      </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="n">
         <v>42583.625</v>
       </c>
-      <c r="D735" s="0" t="n">
-        <v>298.325370421069</v>
-      </c>
-      <c r="E735" s="0" t="n">
-        <v>1.47391304347826</v>
-      </c>
-      <c r="F735" s="0" t="n">
-        <v>202.696311173924</v>
-      </c>
-      <c r="G735" s="0" t="n">
-        <v>-17.4586008420207</v>
-      </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2" t="n">
         <v>42583.6666666667</v>
       </c>
-      <c r="D736" s="0" t="n">
-        <v>297.432779747777</v>
-      </c>
-      <c r="E736" s="0" t="n">
-        <v>1.48913043478261</v>
-      </c>
-      <c r="F736" s="0" t="n">
-        <v>202.77497352078</v>
-      </c>
-      <c r="G736" s="0" t="n">
-        <v>-17.2041048853142</v>
-      </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2" t="n">
         <v>42583.7083333333</v>
       </c>
-      <c r="D737" s="0" t="n">
-        <v>296.524482197897</v>
-      </c>
-      <c r="E737" s="0" t="n">
-        <v>1.50434782608696</v>
-      </c>
-      <c r="F737" s="0" t="n">
-        <v>202.856865603365</v>
-      </c>
-      <c r="G737" s="0" t="n">
-        <v>-16.9492624889067</v>
-      </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2" t="n">
         <v>42583.75</v>
       </c>
-      <c r="D738" s="0" t="n">
-        <v>295.600528092809</v>
-      </c>
-      <c r="E738" s="0" t="n">
-        <v>1.5195652173913</v>
-      </c>
-      <c r="F738" s="0" t="n">
-        <v>202.942066719382</v>
-      </c>
-      <c r="G738" s="0" t="n">
-        <v>-16.6940735042027</v>
-      </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2" t="n">
         <v>42583.7916666667</v>
       </c>
-      <c r="D739" s="0" t="n">
-        <v>294.661002063705</v>
-      </c>
-      <c r="E739" s="0" t="n">
-        <v>1.53478260869565</v>
-      </c>
-      <c r="F739" s="0" t="n">
-        <v>203.030658003803</v>
-      </c>
-      <c r="G739" s="0" t="n">
-        <v>-16.4385377826064</v>
-      </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="n">
         <v>42583.8333333333</v>
       </c>
-      <c r="D740" s="0" t="n">
-        <v>293.706025101252</v>
-      </c>
-      <c r="E740" s="0" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="F740" s="0" t="n">
-        <v>203.122722461499</v>
-      </c>
-      <c r="G740" s="0" t="n">
-        <v>-16.1826551755223</v>
-      </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="n">
         <v>42583.875</v>
       </c>
-      <c r="D741" s="0" t="n">
-        <v>292.735756530455</v>
-      </c>
-      <c r="E741" s="0" t="n">
-        <v>1.56521739130435</v>
-      </c>
-      <c r="F741" s="0" t="n">
-        <v>203.218344999359</v>
-      </c>
-      <c r="G741" s="0" t="n">
-        <v>-15.9264255343548</v>
-      </c>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2" t="n">
         <v>42583.9166666667</v>
       </c>
-      <c r="D742" s="0" t="n">
-        <v>291.75039588204</v>
-      </c>
-      <c r="E742" s="0" t="n">
-        <v>1.5804347826087</v>
-      </c>
-      <c r="F742" s="0" t="n">
-        <v>203.317612457756</v>
-      </c>
-      <c r="G742" s="0" t="n">
-        <v>-15.6698487105082</v>
-      </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="n">
         <v>42583.9583333333</v>
       </c>
-      <c r="D743" s="0" t="n">
-        <v>290.750184629706</v>
-      </c>
-      <c r="E743" s="0" t="n">
-        <v>1.59565217391304</v>
-      </c>
-      <c r="F743" s="0" t="n">
-        <v>203.420613641224</v>
-      </c>
-      <c r="G743" s="0" t="n">
-        <v>-15.4129245553869</v>
-      </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="n">
         <v>42584</v>
       </c>
-      <c r="D744" s="0" t="n">
-        <v>289.73540776113</v>
-      </c>
-      <c r="E744" s="0" t="n">
-        <v>1.61086956521739</v>
-      </c>
-      <c r="F744" s="0" t="n">
-        <v>203.527439348197</v>
-      </c>
-      <c r="G744" s="0" t="n">
-        <v>-15.1556529203954</v>
-      </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="n">
         <v>42584.0416666667</v>
       </c>
-      <c r="D745" s="0" t="n">
-        <v>288.706395149477</v>
-      </c>
-      <c r="E745" s="0" t="n">
-        <v>1.62608695652174</v>
-      </c>
-      <c r="F745" s="0" t="n">
-        <v>203.638182399626</v>
-      </c>
-      <c r="G745" s="0" t="n">
-        <v>-14.898033656938</v>
-      </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="n">
         <v>42584.0833333333</v>
       </c>
-      <c r="D746" s="0" t="n">
-        <v>287.663522691675</v>
-      </c>
-      <c r="E746" s="0" t="n">
-        <v>1.64130434782609</v>
-      </c>
-      <c r="F746" s="0" t="n">
-        <v>203.752937666297</v>
-      </c>
-      <c r="G746" s="0" t="n">
-        <v>-14.6400666164191</v>
-      </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2" t="n">
         <v>42584.125</v>
       </c>
-      <c r="D747" s="0" t="n">
-        <v>286.607213179846</v>
-      </c>
-      <c r="E747" s="0" t="n">
-        <v>1.65652173913044</v>
-      </c>
-      <c r="F747" s="0" t="n">
-        <v>203.871802094643</v>
-      </c>
-      <c r="G747" s="0" t="n">
-        <v>-14.381751650243</v>
-      </c>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="n">
         <v>42584.1666666667</v>
       </c>
-      <c r="D748" s="0" t="n">
-        <v>285.537936873149</v>
-      </c>
-      <c r="E748" s="0" t="n">
-        <v>1.67173913043478</v>
-      </c>
-      <c r="F748" s="0" t="n">
-        <v>203.99487473084</v>
-      </c>
-      <c r="G748" s="0" t="n">
-        <v>-14.1230886098143</v>
-      </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2" t="n">
         <v>42584.2083333333</v>
       </c>
-      <c r="D749" s="0" t="n">
-        <v>284.456211738964</v>
-      </c>
-      <c r="E749" s="0" t="n">
-        <v>1.68695652173913</v>
-      </c>
-      <c r="F749" s="0" t="n">
-        <v>204.122256742936</v>
-      </c>
-      <c r="G749" s="0" t="n">
-        <v>-13.8640773465372</v>
-      </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="n">
         <v>42584.25</v>
       </c>
-      <c r="D750" s="0" t="n">
-        <v>283.362603334916</v>
-      </c>
-      <c r="E750" s="0" t="n">
-        <v>1.70217391304348</v>
-      </c>
-      <c r="F750" s="0" t="n">
-        <v>204.254051440757</v>
-      </c>
-      <c r="G750" s="0" t="n">
-        <v>-13.6047177118161</v>
-      </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="n">
         <v>42584.2916666667</v>
       </c>
-      <c r="D751" s="0" t="n">
-        <v>282.257724306664</v>
-      </c>
-      <c r="E751" s="0" t="n">
-        <v>1.71739130434783</v>
-      </c>
-      <c r="F751" s="0" t="n">
-        <v>204.390364293319</v>
-      </c>
-      <c r="G751" s="0" t="n">
-        <v>-13.3450095570554</v>
-      </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="n">
         <v>42584.3333333333</v>
       </c>
-      <c r="D752" s="0" t="n">
-        <v>281.142233480746</v>
-      </c>
-      <c r="E752" s="0" t="n">
-        <v>1.73260869565217</v>
-      </c>
-      <c r="F752" s="0" t="n">
-        <v>204.53130294343</v>
-      </c>
-      <c r="G752" s="0" t="n">
-        <v>-13.0849527336596</v>
-      </c>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="n">
         <v>42584.375</v>
       </c>
-      <c r="D753" s="0" t="n">
-        <v>280.016834536981</v>
-      </c>
-      <c r="E753" s="0" t="n">
-        <v>1.74782608695652</v>
-      </c>
-      <c r="F753" s="0" t="n">
-        <v>204.676977219164</v>
-      </c>
-      <c r="G753" s="0" t="n">
-        <v>-12.824547093033</v>
-      </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="n">
         <v>42584.4166666667</v>
       </c>
-      <c r="D754" s="0" t="n">
-        <v>278.882274250995</v>
-      </c>
-      <c r="E754" s="0" t="n">
-        <v>1.76304347826087</v>
-      </c>
-      <c r="F754" s="0" t="n">
-        <v>204.82749914185</v>
-      </c>
-      <c r="G754" s="0" t="n">
-        <v>-12.5637924865799</v>
-      </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2" t="n">
         <v>42584.4583333333</v>
       </c>
-      <c r="D755" s="0" t="n">
-        <v>277.739340304153</v>
-      </c>
-      <c r="E755" s="0" t="n">
-        <v>1.77826086956522</v>
-      </c>
-      <c r="F755" s="0" t="n">
-        <v>204.982982930198</v>
-      </c>
-      <c r="G755" s="0" t="n">
-        <v>-12.3026887657048</v>
-      </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2" t="n">
         <v>42584.5</v>
       </c>
-      <c r="D756" s="0" t="n">
-        <v>276.588858665531</v>
-      </c>
-      <c r="E756" s="0" t="n">
-        <v>1.79347826086957</v>
-      </c>
-      <c r="F756" s="0" t="n">
-        <v>205.143545000149</v>
-      </c>
-      <c r="G756" s="0" t="n">
-        <v>-12.0412357818121</v>
-      </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2" t="n">
         <v>42584.5416666667</v>
       </c>
-      <c r="D757" s="0" t="n">
-        <v>275.431690558283</v>
-      </c>
-      <c r="E757" s="0" t="n">
-        <v>1.80869565217391</v>
-      </c>
-      <c r="F757" s="0" t="n">
-        <v>205.309303960018</v>
-      </c>
-      <c r="G757" s="0" t="n">
-        <v>-11.7794333863062</v>
-      </c>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2" t="n">
         <v>42584.5833333333</v>
       </c>
-      <c r="D758" s="0" t="n">
-        <v>274.268729030683</v>
-      </c>
-      <c r="E758" s="0" t="n">
-        <v>1.82391304347826</v>
-      </c>
-      <c r="F758" s="0" t="n">
-        <v>205.48038060045</v>
-      </c>
-      <c r="G758" s="0" t="n">
-        <v>-11.5172814305913</v>
-      </c>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2" t="n">
         <v>42584.625</v>
       </c>
-      <c r="D759" s="0" t="n">
-        <v>273.100895160024</v>
-      </c>
-      <c r="E759" s="0" t="n">
-        <v>1.83913043478261</v>
-      </c>
-      <c r="F759" s="0" t="n">
-        <v>205.65689787869</v>
-      </c>
-      <c r="G759" s="0" t="n">
-        <v>-11.254779766072</v>
-      </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="n">
         <v>42584.6666666667</v>
       </c>
-      <c r="D760" s="0" t="n">
-        <v>271.929133925217</v>
-      </c>
-      <c r="E760" s="0" t="n">
-        <v>1.85434782608696</v>
-      </c>
-      <c r="F760" s="0" t="n">
-        <v>205.838980896637</v>
-      </c>
-      <c r="G760" s="0" t="n">
-        <v>-10.9919282441526</v>
-      </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="n">
         <v>42584.7083333333</v>
       </c>
-      <c r="D761" s="0" t="n">
-        <v>270.754409791032</v>
-      </c>
-      <c r="E761" s="0" t="n">
-        <v>1.8695652173913</v>
-      </c>
-      <c r="F761" s="0" t="n">
-        <v>206.026756872087</v>
-      </c>
-      <c r="G761" s="0" t="n">
-        <v>-10.7287267162375</v>
-      </c>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="n">
         <v>42584.75</v>
       </c>
-      <c r="D762" s="0" t="n">
-        <v>269.577702053325</v>
-      </c>
-      <c r="E762" s="0" t="n">
-        <v>1.88478260869565</v>
-      </c>
-      <c r="F762" s="0" t="n">
-        <v>206.220355102569</v>
-      </c>
-      <c r="G762" s="0" t="n">
-        <v>-10.465175033731</v>
-      </c>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2" t="n">
         <v>42584.7916666667</v>
       </c>
-      <c r="D763" s="0" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="E763" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F763" s="0" t="n">
-        <v>206.419906921125</v>
-      </c>
-      <c r="G763" s="0" t="n">
-        <v>-10.2012730480376</v>
-      </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="n">
         <v>42584.8333333333</v>
       </c>
-      <c r="D764" s="0" t="n">
-        <v>267.222297946675</v>
-      </c>
-      <c r="E764" s="0" t="n">
-        <v>1.91521739130435</v>
-      </c>
-      <c r="F764" s="0" t="n">
-        <v>206.62554564333</v>
-      </c>
-      <c r="G764" s="0" t="n">
-        <v>-9.93702061056171</v>
-      </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="n">
         <v>42584.875</v>
       </c>
-      <c r="D765" s="0" t="n">
-        <v>266.045590208968</v>
-      </c>
-      <c r="E765" s="0" t="n">
-        <v>1.9304347826087</v>
-      </c>
-      <c r="F765" s="0" t="n">
-        <v>206.837406504828</v>
-      </c>
-      <c r="G765" s="0" t="n">
-        <v>-9.67241757270762</v>
-      </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2" t="n">
         <v>42584.9166666667</v>
       </c>
-      <c r="D766" s="0" t="n">
-        <v>264.870866074783</v>
-      </c>
-      <c r="E766" s="0" t="n">
-        <v>1.94565217391304</v>
-      </c>
-      <c r="F766" s="0" t="n">
-        <v>207.055626588616</v>
-      </c>
-      <c r="G766" s="0" t="n">
-        <v>-9.40746378587975</v>
-      </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2" t="n">
         <v>42584.9583333334</v>
       </c>
-      <c r="D767" s="0" t="n">
-        <v>263.699104839976</v>
-      </c>
-      <c r="E767" s="0" t="n">
-        <v>1.96086956521739</v>
-      </c>
-      <c r="F767" s="0" t="n">
-        <v>207.280344741251</v>
-      </c>
-      <c r="G767" s="0" t="n">
-        <v>-9.14215910148249</v>
-      </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2" t="n">
         <v>42585</v>
       </c>
-      <c r="D768" s="0" t="n">
-        <v>262.531270969317</v>
-      </c>
-      <c r="E768" s="0" t="n">
-        <v>1.97608695652174</v>
-      </c>
-      <c r="F768" s="0" t="n">
-        <v>207.511701477128</v>
-      </c>
-      <c r="G768" s="0" t="n">
-        <v>-8.87650337092023</v>
-      </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2" t="n">
         <v>42585.0416666667</v>
       </c>
-      <c r="D769" s="0" t="n">
-        <v>261.368309441717</v>
-      </c>
-      <c r="E769" s="0" t="n">
-        <v>1.99130434782609</v>
-      </c>
-      <c r="F769" s="0" t="n">
-        <v>207.749838869934</v>
-      </c>
-      <c r="G769" s="0" t="n">
-        <v>-8.61049644559735</v>
-      </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2" t="n">
         <v>42585.0833333333</v>
       </c>
-      <c r="D770" s="0" t="n">
-        <v>260.211141334469</v>
-      </c>
-      <c r="E770" s="0" t="n">
-        <v>2.00652173913043</v>
-      </c>
-      <c r="F770" s="0" t="n">
-        <v>207.994900430326</v>
-      </c>
-      <c r="G770" s="0" t="n">
-        <v>-8.34413817691823</v>
-      </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="n">
         <v>42585.125</v>
       </c>
-      <c r="D771" s="0" t="n">
-        <v>259.060659695847</v>
-      </c>
-      <c r="E771" s="0" t="n">
-        <v>2.02173913043478</v>
-      </c>
-      <c r="F771" s="0" t="n">
-        <v>208.247030968864</v>
-      </c>
-      <c r="G771" s="0" t="n">
-        <v>-8.07742841628728</v>
-      </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2" t="n">
         <v>42585.1666666667</v>
       </c>
-      <c r="D772" s="0" t="n">
-        <v>257.917725749005</v>
-      </c>
-      <c r="E772" s="0" t="n">
-        <v>2.03695652173913</v>
-      </c>
-      <c r="F772" s="0" t="n">
-        <v>208.506376443177</v>
-      </c>
-      <c r="G772" s="0" t="n">
-        <v>-7.81036701510886</v>
-      </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="n">
         <v>42585.2083333333</v>
       </c>
-      <c r="D773" s="0" t="n">
-        <v>256.783165463019</v>
-      </c>
-      <c r="E773" s="0" t="n">
-        <v>2.05217391304348</v>
-      </c>
-      <c r="F773" s="0" t="n">
-        <v>208.773083788301</v>
-      </c>
-      <c r="G773" s="0" t="n">
-        <v>-7.54295382478737</v>
-      </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="n">
         <v>42585.25</v>
       </c>
-      <c r="D774" s="0" t="n">
-        <v>255.657766519254</v>
-      </c>
-      <c r="E774" s="0" t="n">
-        <v>2.06739130434783</v>
-      </c>
-      <c r="F774" s="0" t="n">
-        <v>209.047300729115</v>
-      </c>
-      <c r="G774" s="0" t="n">
-        <v>-7.2751886967272</v>
-      </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="n">
         <v>42585.2916666667</v>
       </c>
-      <c r="D775" s="0" t="n">
-        <v>254.542275693335</v>
-      </c>
-      <c r="E775" s="0" t="n">
-        <v>2.08260869565217</v>
-      </c>
-      <c r="F775" s="0" t="n">
-        <v>209.329175573745</v>
-      </c>
-      <c r="G775" s="0" t="n">
-        <v>-7.00707148233273</v>
-      </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="2" t="n">
         <v>42585.3333333333</v>
       </c>
-      <c r="D776" s="0" t="n">
-        <v>253.437396665084</v>
-      </c>
-      <c r="E776" s="0" t="n">
-        <v>2.09782608695652</v>
-      </c>
-      <c r="F776" s="0" t="n">
-        <v>209.618856986811</v>
-      </c>
-      <c r="G776" s="0" t="n">
-        <v>-6.73860203300835</v>
-      </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="n">
         <v>42585.375</v>
       </c>
-      <c r="D777" s="0" t="n">
-        <v>252.343788261036</v>
-      </c>
-      <c r="E777" s="0" t="n">
-        <v>2.11304347826087</v>
-      </c>
-      <c r="F777" s="0" t="n">
-        <v>209.916493741348</v>
-      </c>
-      <c r="G777" s="0" t="n">
-        <v>-6.46978020015843</v>
-      </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="n">
         <v>42585.4166666667</v>
       </c>
-      <c r="D778" s="0" t="n">
-        <v>251.262063126851</v>
-      </c>
-      <c r="E778" s="0" t="n">
-        <v>2.12826086956522</v>
-      </c>
-      <c r="F778" s="0" t="n">
-        <v>210.22223444825</v>
-      </c>
-      <c r="G778" s="0" t="n">
-        <v>-6.20060583518738</v>
-      </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="2" t="n">
         <v>42585.4583333333</v>
       </c>
-      <c r="D779" s="0" t="n">
-        <v>250.192786820154</v>
-      </c>
-      <c r="E779" s="0" t="n">
-        <v>2.14347826086956</v>
-      </c>
-      <c r="F779" s="0" t="n">
-        <v>210.536227262065</v>
-      </c>
-      <c r="G779" s="0" t="n">
-        <v>-5.93107878949957</v>
-      </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="n">
         <v>42585.5</v>
       </c>
-      <c r="D780" s="0" t="n">
-        <v>249.136477308325</v>
-      </c>
-      <c r="E780" s="0" t="n">
-        <v>2.15869565217391</v>
-      </c>
-      <c r="F780" s="0" t="n">
-        <v>210.858619561979</v>
-      </c>
-      <c r="G780" s="0" t="n">
-        <v>-5.6611989144994</v>
-      </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2" t="n">
         <v>42585.5416666667</v>
       </c>
-      <c r="D781" s="0" t="n">
-        <v>248.093604850523</v>
-      </c>
-      <c r="E781" s="0" t="n">
-        <v>2.17391304347826</v>
-      </c>
-      <c r="F781" s="0" t="n">
-        <v>211.18955760687</v>
-      </c>
-      <c r="G781" s="0" t="n">
-        <v>-5.39096606159125</v>
-      </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2" t="n">
         <v>42585.5833333333</v>
       </c>
-      <c r="D782" s="0" t="n">
-        <v>247.06459223887</v>
-      </c>
-      <c r="E782" s="0" t="n">
-        <v>2.18913043478261</v>
-      </c>
-      <c r="F782" s="0" t="n">
-        <v>211.529186163323</v>
-      </c>
-      <c r="G782" s="0" t="n">
-        <v>-5.1203800821795</v>
-      </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2" t="n">
         <v>42585.625</v>
       </c>
-      <c r="D783" s="0" t="n">
-        <v>246.049815370294</v>
-      </c>
-      <c r="E783" s="0" t="n">
-        <v>2.20434782608696</v>
-      </c>
-      <c r="F783" s="0" t="n">
-        <v>211.877648105565</v>
-      </c>
-      <c r="G783" s="0" t="n">
-        <v>-4.84944082766855</v>
-      </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2" t="n">
         <v>42585.6666666667</v>
       </c>
-      <c r="D784" s="0" t="n">
-        <v>245.04960411796</v>
-      </c>
-      <c r="E784" s="0" t="n">
-        <v>2.2195652173913</v>
-      </c>
-      <c r="F784" s="0" t="n">
-        <v>212.235083986338</v>
-      </c>
-      <c r="G784" s="0" t="n">
-        <v>-4.57814814946277</v>
-      </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="2" t="n">
         <v>42585.7083333333</v>
       </c>
-      <c r="D785" s="0" t="n">
-        <v>244.064243469545</v>
-      </c>
-      <c r="E785" s="0" t="n">
-        <v>2.23478260869565</v>
-      </c>
-      <c r="F785" s="0" t="n">
-        <v>212.601631577825</v>
-      </c>
-      <c r="G785" s="0" t="n">
-        <v>-4.30650189896656</v>
-      </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2" t="n">
         <v>42585.75</v>
       </c>
-      <c r="D786" s="0" t="n">
-        <v>243.093974898748</v>
-      </c>
-      <c r="E786" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F786" s="0" t="n">
-        <v>212.977425381853</v>
-      </c>
-      <c r="G786" s="0" t="n">
-        <v>-4.03450192758429</v>
-      </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2" t="n">
         <v>42585.7916666667</v>
       </c>
-      <c r="D787" s="0" t="n">
-        <v>242.138997936295</v>
-      </c>
-      <c r="E787" s="0" t="n">
-        <v>2.26521739130435</v>
-      </c>
-      <c r="F787" s="0" t="n">
-        <v>213.362596108719</v>
-      </c>
-      <c r="G787" s="0" t="n">
-        <v>-3.76214808672037</v>
-      </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="n">
         <v>42585.8333333333</v>
       </c>
-      <c r="D788" s="0" t="n">
-        <v>241.199471907191</v>
-      </c>
-      <c r="E788" s="0" t="n">
-        <v>2.2804347826087</v>
-      </c>
-      <c r="F788" s="0" t="n">
-        <v>213.757270124166</v>
-      </c>
-      <c r="G788" s="0" t="n">
-        <v>-3.48944022777917</v>
-      </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2" t="n">
         <v>42585.875</v>
       </c>
-      <c r="D789" s="0" t="n">
-        <v>240.275517802103</v>
-      </c>
-      <c r="E789" s="0" t="n">
-        <v>2.29565217391304</v>
-      </c>
-      <c r="F789" s="0" t="n">
-        <v>214.161568864214</v>
-      </c>
-      <c r="G789" s="0" t="n">
-        <v>-3.21637820216508</v>
-      </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="2" t="n">
         <v>42585.9166666667</v>
       </c>
-      <c r="D790" s="0" t="n">
-        <v>239.367220252223</v>
-      </c>
-      <c r="E790" s="0" t="n">
-        <v>2.31086956521739</v>
-      </c>
-      <c r="F790" s="0" t="n">
-        <v>214.575608217758</v>
-      </c>
-      <c r="G790" s="0" t="n">
-        <v>-2.94296186128249</v>
-      </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="2" t="n">
         <v>42585.9583333333</v>
       </c>
-      <c r="D791" s="0" t="n">
-        <v>238.474629578931</v>
-      </c>
-      <c r="E791" s="0" t="n">
-        <v>2.32608695652174</v>
-      </c>
-      <c r="F791" s="0" t="n">
-        <v>214.999497877133</v>
-      </c>
-      <c r="G791" s="0" t="n">
-        <v>-2.66919105653578</v>
-      </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="n">
         <v>42586.0416666667</v>
       </c>
-      <c r="D792" s="0" t="n">
-        <v>237.597763891697</v>
-      </c>
-      <c r="E792" s="0" t="n">
-        <v>2.34130434782609</v>
-      </c>
-      <c r="F792" s="0" t="n">
-        <v>215.877231782962</v>
-      </c>
-      <c r="G792" s="0" t="n">
-        <v>-2.12058546106756</v>
-      </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2" t="n">
         <v>42586.0833333333</v>
       </c>
-      <c r="D793" s="0" t="n">
-        <v>236.736611210054</v>
-      </c>
-      <c r="E793" s="0" t="n">
-        <v>2.35652173913043</v>
-      </c>
-      <c r="F793" s="0" t="n">
-        <v>216.331258149229</v>
-      </c>
-      <c r="G793" s="0" t="n">
-        <v>-1.84575037315481</v>
-      </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="2" t="n">
         <v>42586.125</v>
       </c>
-      <c r="D794" s="0" t="n">
-        <v>235.891131587917</v>
-      </c>
-      <c r="E794" s="0" t="n">
-        <v>2.37173913043478</v>
-      </c>
-      <c r="F794" s="0" t="n">
-        <v>216.795497549885</v>
-      </c>
-      <c r="G794" s="0" t="n">
-        <v>-1.5705602269955</v>
-      </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2" t="n">
         <v>42586.1666666667</v>
       </c>
-      <c r="D795" s="0" t="n">
-        <v>235.061259221031</v>
-      </c>
-      <c r="E795" s="0" t="n">
-        <v>2.38695652173913</v>
-      </c>
-      <c r="F795" s="0" t="n">
-        <v>217.270017882731</v>
-      </c>
-      <c r="G795" s="0" t="n">
-        <v>-1.295014873994</v>
-      </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="2" t="n">
         <v>42586.2083333333</v>
       </c>
-      <c r="D796" s="0" t="n">
-        <v>234.246904520841</v>
-      </c>
-      <c r="E796" s="0" t="n">
-        <v>2.40217391304348</v>
-      </c>
-      <c r="F796" s="0" t="n">
-        <v>217.75487632993</v>
-      </c>
-      <c r="G796" s="0" t="n">
-        <v>-1.01911416555471</v>
-      </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2" t="n">
         <v>42586.25</v>
       </c>
-      <c r="D797" s="0" t="n">
-        <v>233.447956140449</v>
-      </c>
-      <c r="E797" s="0" t="n">
-        <v>2.41739130434783</v>
-      </c>
-      <c r="F797" s="0" t="n">
-        <v>218.250118517811</v>
-      </c>
-      <c r="G797" s="0" t="n">
-        <v>-0.742857953081998</v>
-      </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="2" t="n">
         <v>42586.2916666667</v>
       </c>
-      <c r="D798" s="0" t="n">
-        <v>232.664282940679</v>
-      </c>
-      <c r="E798" s="0" t="n">
-        <v>2.43260869565217</v>
-      </c>
-      <c r="F798" s="0" t="n">
-        <v>218.755777659377</v>
-      </c>
-      <c r="G798" s="0" t="n">
-        <v>-0.466246087980264</v>
-      </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2" t="n">
         <v>42586.3333333333</v>
       </c>
-      <c r="D799" s="0" t="n">
-        <v>231.895735886416</v>
-      </c>
-      <c r="E799" s="0" t="n">
-        <v>2.44782608695652</v>
-      </c>
-      <c r="F799" s="0" t="n">
-        <v>219.27187368358</v>
-      </c>
-      <c r="G799" s="0" t="n">
-        <v>-0.189278421653891</v>
-      </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2" t="n">
         <v>42586.375</v>
       </c>
-      <c r="D800" s="0" t="n">
-        <v>231.142149865423</v>
-      </c>
-      <c r="E800" s="0" t="n">
-        <v>2.46304347826087</v>
-      </c>
-      <c r="F800" s="0" t="n">
-        <v>219.798412355978</v>
-      </c>
-      <c r="G800" s="0" t="n">
-        <v>0.0880451944927354</v>
-      </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2" t="n">
         <v>42586.4166666667</v>
       </c>
-      <c r="D801" s="0" t="n">
-        <v>230.403345423673</v>
-      </c>
-      <c r="E801" s="0" t="n">
-        <v>2.47826086956522</v>
-      </c>
-      <c r="F801" s="0" t="n">
-        <v>220.335384395997</v>
-      </c>
-      <c r="G801" s="0" t="n">
-        <v>0.365724909055228</v>
-      </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2" t="n">
         <v>42586.4583333333</v>
       </c>
-      <c r="D802" s="0" t="n">
-        <v>229.679130412904</v>
-      </c>
-      <c r="E802" s="0" t="n">
-        <v>2.49347826086957</v>
-      </c>
-      <c r="F802" s="0" t="n">
-        <v>220.882764596667</v>
-      </c>
-      <c r="G802" s="0" t="n">
-        <v>0.643760870629202</v>
-      </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2" t="n">
         <v>42586.5</v>
       </c>
-      <c r="D803" s="0" t="n">
-        <v>228.969301547618</v>
-      </c>
-      <c r="E803" s="0" t="n">
-        <v>2.50869565217391</v>
-      </c>
-      <c r="F803" s="0" t="n">
-        <v>221.440510953267</v>
-      </c>
-      <c r="G803" s="0" t="n">
-        <v>0.922153227810269</v>
-      </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2" t="n">
         <v>42586.5416666667</v>
       </c>
-      <c r="D804" s="0" t="n">
-        <v>228.273645870008</v>
-      </c>
-      <c r="E804" s="0" t="n">
-        <v>2.52391304347826</v>
-      </c>
-      <c r="F804" s="0" t="n">
-        <v>222.008563807955</v>
-      </c>
-      <c r="G804" s="0" t="n">
-        <v>1.20090212919404</v>
-      </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2" t="n">
         <v>42586.5833333333</v>
       </c>
-      <c r="D805" s="0" t="n">
-        <v>227.591942122492</v>
-      </c>
-      <c r="E805" s="0" t="n">
-        <v>2.53913043478261</v>
-      </c>
-      <c r="F805" s="0" t="n">
-        <v>222.586845018029</v>
-      </c>
-      <c r="G805" s="0" t="n">
-        <v>1.48000772337614</v>
-      </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2" t="n">
         <v>42586.625</v>
       </c>
-      <c r="D806" s="0" t="n">
-        <v>226.923962028462</v>
-      </c>
-      <c r="E806" s="0" t="n">
-        <v>2.55434782608696</v>
-      </c>
-      <c r="F806" s="0" t="n">
-        <v>223.175257156004</v>
-      </c>
-      <c r="G806" s="0" t="n">
-        <v>1.75947015895217</v>
-      </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2" t="n">
         <v>42586.6666666667</v>
       </c>
-      <c r="D807" s="0" t="n">
-        <v>226.269471482705</v>
-      </c>
-      <c r="E807" s="0" t="n">
-        <v>2.5695652173913</v>
-      </c>
-      <c r="F807" s="0" t="n">
-        <v>223.773682750201</v>
-      </c>
-      <c r="G807" s="0" t="n">
-        <v>2.03928958451775</v>
-      </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2" t="n">
         <v>42586.7083333333</v>
-      </c>
-      <c r="D808" s="0" t="n">
-        <v>225.628231653634</v>
-      </c>
-      <c r="E808" s="0" t="n">
-        <v>2.58478260869565</v>
-      </c>
-      <c r="F808" s="0" t="n">
-        <v>224.381983574967</v>
-      </c>
-      <c r="G808" s="0" t="n">
-        <v>2.31946614866849</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
